--- a/optimize/Axiory/covid/MA20/NIKKEI/M5/matrix_NIKKEI_M5_MA20_2020_1.xlsx
+++ b/optimize/Axiory/covid/MA20/NIKKEI/M5/matrix_NIKKEI_M5_MA20_2020_1.xlsx
@@ -444,31 +444,31 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-3028</v>
+        <v>-3018</v>
       </c>
       <c r="C2">
-        <v>5580</v>
+        <v>5590</v>
       </c>
       <c r="D2">
-        <v>10414</v>
+        <v>10424</v>
       </c>
       <c r="E2">
-        <v>2546</v>
+        <v>2556</v>
       </c>
       <c r="F2">
-        <v>5686</v>
+        <v>5696</v>
       </c>
       <c r="G2">
-        <v>-3826</v>
+        <v>-3816</v>
       </c>
       <c r="H2">
-        <v>-4210</v>
+        <v>-4200</v>
       </c>
       <c r="I2">
-        <v>-2188</v>
+        <v>-2178</v>
       </c>
       <c r="J2">
-        <v>-3342</v>
+        <v>-3332</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -476,31 +476,31 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>-5168</v>
+        <v>-5158</v>
       </c>
       <c r="C3">
-        <v>-2600</v>
+        <v>-2590</v>
       </c>
       <c r="D3">
-        <v>11120</v>
+        <v>11130</v>
       </c>
       <c r="E3">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="F3">
-        <v>1190</v>
+        <v>1200</v>
       </c>
       <c r="G3">
-        <v>-1794</v>
+        <v>-1784</v>
       </c>
       <c r="H3">
-        <v>-3658</v>
+        <v>-3648</v>
       </c>
       <c r="I3">
-        <v>-4682</v>
+        <v>-4672</v>
       </c>
       <c r="J3">
-        <v>-2240</v>
+        <v>-2230</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -508,31 +508,31 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>-1948</v>
+        <v>-1938</v>
       </c>
       <c r="C4">
-        <v>-7694</v>
+        <v>-7684</v>
       </c>
       <c r="D4">
-        <v>9432</v>
+        <v>9442</v>
       </c>
       <c r="E4">
-        <v>4052</v>
+        <v>4062</v>
       </c>
       <c r="F4">
-        <v>-1072</v>
+        <v>-1062</v>
       </c>
       <c r="G4">
-        <v>4936</v>
+        <v>4946</v>
       </c>
       <c r="H4">
-        <v>-5276</v>
+        <v>-5266</v>
       </c>
       <c r="I4">
-        <v>-6876</v>
+        <v>-6866</v>
       </c>
       <c r="J4">
-        <v>-3356</v>
+        <v>-3346</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -540,31 +540,31 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>1950</v>
+        <v>1960</v>
       </c>
       <c r="C5">
-        <v>-3334</v>
+        <v>-3324</v>
       </c>
       <c r="D5">
-        <v>10544</v>
+        <v>10554</v>
       </c>
       <c r="E5">
-        <v>5034</v>
+        <v>5044</v>
       </c>
       <c r="F5">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="G5">
-        <v>3056</v>
+        <v>3066</v>
       </c>
       <c r="H5">
-        <v>-3238</v>
+        <v>-3228</v>
       </c>
       <c r="I5">
-        <v>-4260</v>
+        <v>-4250</v>
       </c>
       <c r="J5">
-        <v>-768</v>
+        <v>-758</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -572,31 +572,31 @@
         <v>25</v>
       </c>
       <c r="B6">
-        <v>1750</v>
+        <v>1760</v>
       </c>
       <c r="C6">
-        <v>-6980</v>
+        <v>-6970</v>
       </c>
       <c r="D6">
-        <v>9878</v>
+        <v>9888</v>
       </c>
       <c r="E6">
-        <v>4296</v>
+        <v>4306</v>
       </c>
       <c r="F6">
-        <v>1292</v>
+        <v>1302</v>
       </c>
       <c r="G6">
-        <v>4868</v>
+        <v>4878</v>
       </c>
       <c r="H6">
-        <v>-1938</v>
+        <v>-1928</v>
       </c>
       <c r="I6">
-        <v>800</v>
+        <v>810</v>
       </c>
       <c r="J6">
-        <v>-4738</v>
+        <v>-4728</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -604,31 +604,31 @@
         <v>30</v>
       </c>
       <c r="B7">
-        <v>2598</v>
+        <v>2608</v>
       </c>
       <c r="C7">
-        <v>-5512</v>
+        <v>-5502</v>
       </c>
       <c r="D7">
-        <v>12112</v>
+        <v>12122</v>
       </c>
       <c r="E7">
-        <v>4626</v>
+        <v>4636</v>
       </c>
       <c r="F7">
-        <v>-3118</v>
+        <v>-3108</v>
       </c>
       <c r="G7">
-        <v>2574</v>
+        <v>2584</v>
       </c>
       <c r="H7">
-        <v>5096</v>
+        <v>5106</v>
       </c>
       <c r="I7">
-        <v>-1288</v>
+        <v>-1278</v>
       </c>
       <c r="J7">
-        <v>-5306</v>
+        <v>-5296</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -636,31 +636,31 @@
         <v>35</v>
       </c>
       <c r="B8">
-        <v>2794</v>
+        <v>2804</v>
       </c>
       <c r="C8">
-        <v>-2482</v>
+        <v>-2472</v>
       </c>
       <c r="D8">
-        <v>12264</v>
+        <v>12274</v>
       </c>
       <c r="E8">
-        <v>7038</v>
+        <v>7048</v>
       </c>
       <c r="F8">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="G8">
-        <v>1826</v>
+        <v>1836</v>
       </c>
       <c r="H8">
-        <v>5308</v>
+        <v>5318</v>
       </c>
       <c r="I8">
-        <v>-562</v>
+        <v>-552</v>
       </c>
       <c r="J8">
-        <v>-4836</v>
+        <v>-4826</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -668,31 +668,31 @@
         <v>40</v>
       </c>
       <c r="B9">
-        <v>928</v>
+        <v>938</v>
       </c>
       <c r="C9">
-        <v>-3142</v>
+        <v>-3132</v>
       </c>
       <c r="D9">
-        <v>12094</v>
+        <v>12104</v>
       </c>
       <c r="E9">
-        <v>2906</v>
+        <v>2916</v>
       </c>
       <c r="F9">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="G9">
-        <v>2872</v>
+        <v>2882</v>
       </c>
       <c r="H9">
-        <v>6120</v>
+        <v>6130</v>
       </c>
       <c r="I9">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="J9">
-        <v>-5244</v>
+        <v>-5234</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -700,31 +700,31 @@
         <v>45</v>
       </c>
       <c r="B10">
-        <v>1518</v>
+        <v>1528</v>
       </c>
       <c r="C10">
-        <v>-4400</v>
+        <v>-4390</v>
       </c>
       <c r="D10">
-        <v>5120</v>
+        <v>5130</v>
       </c>
       <c r="E10">
-        <v>6638</v>
+        <v>6648</v>
       </c>
       <c r="F10">
-        <v>2266</v>
+        <v>2276</v>
       </c>
       <c r="G10">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="H10">
-        <v>3742</v>
+        <v>3752</v>
       </c>
       <c r="I10">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="J10">
-        <v>-4742</v>
+        <v>-4732</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -732,31 +732,31 @@
         <v>50</v>
       </c>
       <c r="B11">
-        <v>-60</v>
+        <v>-50</v>
       </c>
       <c r="C11">
-        <v>-3008</v>
+        <v>-2998</v>
       </c>
       <c r="D11">
-        <v>5722</v>
+        <v>5732</v>
       </c>
       <c r="E11">
-        <v>5742</v>
+        <v>5752</v>
       </c>
       <c r="F11">
-        <v>4500</v>
+        <v>4510</v>
       </c>
       <c r="G11">
-        <v>-160</v>
+        <v>-150</v>
       </c>
       <c r="H11">
-        <v>2624</v>
+        <v>2634</v>
       </c>
       <c r="I11">
-        <v>-592</v>
+        <v>-582</v>
       </c>
       <c r="J11">
-        <v>-4360</v>
+        <v>-4350</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -764,31 +764,31 @@
         <v>55</v>
       </c>
       <c r="B12">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="C12">
-        <v>-2210</v>
+        <v>-2200</v>
       </c>
       <c r="D12">
-        <v>1806</v>
+        <v>1816</v>
       </c>
       <c r="E12">
-        <v>6562</v>
+        <v>6572</v>
       </c>
       <c r="F12">
-        <v>6548</v>
+        <v>6558</v>
       </c>
       <c r="G12">
-        <v>3874</v>
+        <v>3884</v>
       </c>
       <c r="H12">
-        <v>1896</v>
+        <v>1906</v>
       </c>
       <c r="I12">
-        <v>-2410</v>
+        <v>-2400</v>
       </c>
       <c r="J12">
-        <v>-1656</v>
+        <v>-1646</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -796,31 +796,31 @@
         <v>60</v>
       </c>
       <c r="B13">
-        <v>-778</v>
+        <v>-768</v>
       </c>
       <c r="C13">
-        <v>-1334</v>
+        <v>-1324</v>
       </c>
       <c r="D13">
-        <v>6886</v>
+        <v>6896</v>
       </c>
       <c r="E13">
-        <v>1102</v>
+        <v>1112</v>
       </c>
       <c r="F13">
-        <v>5204</v>
+        <v>5214</v>
       </c>
       <c r="G13">
-        <v>4448</v>
+        <v>4458</v>
       </c>
       <c r="H13">
-        <v>2688</v>
+        <v>2698</v>
       </c>
       <c r="I13">
-        <v>-2330</v>
+        <v>-2320</v>
       </c>
       <c r="J13">
-        <v>-2322</v>
+        <v>-2312</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -828,31 +828,31 @@
         <v>65</v>
       </c>
       <c r="B14">
-        <v>-118</v>
+        <v>-108</v>
       </c>
       <c r="C14">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="D14">
-        <v>5314</v>
+        <v>5324</v>
       </c>
       <c r="E14">
-        <v>1648</v>
+        <v>1658</v>
       </c>
       <c r="F14">
-        <v>6390</v>
+        <v>6400</v>
       </c>
       <c r="G14">
-        <v>1142</v>
+        <v>1152</v>
       </c>
       <c r="H14">
-        <v>3690</v>
+        <v>3700</v>
       </c>
       <c r="I14">
-        <v>1140</v>
+        <v>1150</v>
       </c>
       <c r="J14">
-        <v>-4294</v>
+        <v>-4284</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -860,31 +860,31 @@
         <v>70</v>
       </c>
       <c r="B15">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="C15">
-        <v>1992</v>
+        <v>2002</v>
       </c>
       <c r="D15">
-        <v>5300</v>
+        <v>5310</v>
       </c>
       <c r="E15">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="F15">
-        <v>6504</v>
+        <v>6514</v>
       </c>
       <c r="G15">
-        <v>4610</v>
+        <v>4620</v>
       </c>
       <c r="H15">
-        <v>5604</v>
+        <v>5614</v>
       </c>
       <c r="I15">
-        <v>3188</v>
+        <v>3198</v>
       </c>
       <c r="J15">
-        <v>-2514</v>
+        <v>-2504</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -892,31 +892,31 @@
         <v>75</v>
       </c>
       <c r="B16">
-        <v>-642</v>
+        <v>-632</v>
       </c>
       <c r="C16">
-        <v>-146</v>
+        <v>-136</v>
       </c>
       <c r="D16">
-        <v>5710</v>
+        <v>5720</v>
       </c>
       <c r="E16">
-        <v>3326</v>
+        <v>3336</v>
       </c>
       <c r="F16">
-        <v>5056</v>
+        <v>5066</v>
       </c>
       <c r="G16">
-        <v>4576</v>
+        <v>4586</v>
       </c>
       <c r="H16">
-        <v>6852</v>
+        <v>6862</v>
       </c>
       <c r="I16">
-        <v>5150</v>
+        <v>5160</v>
       </c>
       <c r="J16">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -924,31 +924,31 @@
         <v>80</v>
       </c>
       <c r="B17">
-        <v>-704</v>
+        <v>-694</v>
       </c>
       <c r="C17">
-        <v>-1780</v>
+        <v>-1770</v>
       </c>
       <c r="D17">
-        <v>6034</v>
+        <v>6044</v>
       </c>
       <c r="E17">
-        <v>6196</v>
+        <v>6206</v>
       </c>
       <c r="F17">
-        <v>4818</v>
+        <v>4828</v>
       </c>
       <c r="G17">
-        <v>3506</v>
+        <v>3516</v>
       </c>
       <c r="H17">
-        <v>8042</v>
+        <v>8052</v>
       </c>
       <c r="I17">
-        <v>4458</v>
+        <v>4468</v>
       </c>
       <c r="J17">
-        <v>-402</v>
+        <v>-392</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -956,31 +956,31 @@
         <v>85</v>
       </c>
       <c r="B18">
-        <v>-910</v>
+        <v>-900</v>
       </c>
       <c r="C18">
-        <v>-992</v>
+        <v>-982</v>
       </c>
       <c r="D18">
-        <v>8766</v>
+        <v>8776</v>
       </c>
       <c r="E18">
-        <v>7952</v>
+        <v>7962</v>
       </c>
       <c r="F18">
-        <v>5054</v>
+        <v>5064</v>
       </c>
       <c r="G18">
-        <v>4158</v>
+        <v>4168</v>
       </c>
       <c r="H18">
-        <v>6770</v>
+        <v>6780</v>
       </c>
       <c r="I18">
-        <v>3932</v>
+        <v>3942</v>
       </c>
       <c r="J18">
-        <v>-698</v>
+        <v>-688</v>
       </c>
     </row>
   </sheetData>
